--- a/freq_edge/유통edge.xlsx
+++ b/freq_edge/유통edge.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://seoultechackr-my.sharepoint.com/personal/14126813_seoultech_ac_kr/Documents/바탕 화면/대학원/project/new_year_speech/new_year_speech/freq_edge/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_BEAA3ECD97D9AE5F87057F2F58696B6F61B4259D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A209D320-C1E2-47A3-A70D-78ACA2C2E420}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
-  <si>
-    <t>산업군</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
   <si>
     <t>유통</t>
   </si>
@@ -113,17 +113,33 @@
   </si>
   <si>
     <t>방식</t>
+  </si>
+  <si>
+    <t>source</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>target</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -131,8 +147,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -144,7 +167,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -167,26 +190,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -228,7 +273,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -260,9 +305,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -294,6 +357,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -469,355 +550,362 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
       <c r="C2">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
       </c>
       <c r="C3">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C13">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C15">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C16">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C18">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C19">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C20">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C21">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C22">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C23">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C24">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C25">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C26">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C27">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C28">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C29">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C30">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C31">
         <v>13</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>